--- a/Lamia/DBASE/create/Base2_assainissement_0_3.xlsx
+++ b/Lamia/DBASE/create/Base2_assainissement_0_3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="767" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="767" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="18" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="560">
   <si>
     <t>Lamia</t>
   </si>
@@ -477,15 +477,9 @@
     <t>Commune</t>
   </si>
   <si>
-    <t xml:space="preserve">    COM</t>
-  </si>
-  <si>
     <t>Systeme de collecte</t>
   </si>
   <si>
-    <t xml:space="preserve">      COL</t>
-  </si>
-  <si>
     <t>altradierouvrage</t>
   </si>
   <si>
@@ -555,9 +549,6 @@
     <t>Débourbeur/déshuileur</t>
   </si>
   <si>
-    <t>Fosse sceptique</t>
-  </si>
-  <si>
     <t>Bassin de stockage</t>
   </si>
   <si>
@@ -1278,12 +1269,6 @@
     <t>Ouvert</t>
   </si>
   <si>
-    <t>Visitable/Non</t>
-  </si>
-  <si>
-    <t>Borgne/Oui</t>
-  </si>
-  <si>
     <t>Trop-plein de poste</t>
   </si>
   <si>
@@ -1500,9 +1485,6 @@
     <t xml:space="preserve">  PP (Polypropylène) </t>
   </si>
   <si>
-    <t xml:space="preserve">  PRV (polyester renforcé de fibres de verre) </t>
-  </si>
-  <si>
     <t xml:space="preserve">  PVC Bi-Orienté </t>
   </si>
   <si>
@@ -1642,19 +1624,142 @@
   </si>
   <si>
     <t>Dégel</t>
+  </si>
+  <si>
+    <t>PRV</t>
+  </si>
+  <si>
+    <t>Gestion</t>
+  </si>
+  <si>
+    <t>GES</t>
+  </si>
+  <si>
+    <t>COM</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Batardeau  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Clapet  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Point métrologique  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Plaque pleine  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Té de curage  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Vanne  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Vanne murale  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Vanne à guillotine  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Vanne à manchon  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Ventouse  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Vidange  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Cône  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Régulateur  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Purge   </t>
+  </si>
+  <si>
+    <t>Borgne</t>
+  </si>
+  <si>
+    <t>Visitable</t>
+  </si>
+  <si>
+    <t>Fosse septique</t>
+  </si>
+  <si>
+    <t>Clapet anti-odeur</t>
+  </si>
+  <si>
+    <t>REC</t>
+  </si>
+  <si>
+    <t>Recouvert</t>
+  </si>
+  <si>
+    <t>Herbe/TN</t>
+  </si>
+  <si>
+    <t>TRO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1755,59 +1860,74 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -2577,16 +2697,16 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="L1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -2641,10 +2761,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2655,7 +2775,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D1" s="1"/>
       <c r="F1" t="s">
@@ -2699,15 +2819,23 @@
         <v>149</v>
       </c>
       <c r="G3" t="s">
-        <v>150</v>
+        <v>536</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G4" t="s">
-        <v>152</v>
+        <v>537</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>534</v>
+      </c>
+      <c r="G5" t="s">
+        <v>535</v>
       </c>
     </row>
   </sheetData>
@@ -2718,10 +2846,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K119"/>
+  <dimension ref="A1:K120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E122" sqref="E122"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2731,20 +2859,20 @@
     <col min="3" max="3" width="38.5703125" customWidth="1"/>
     <col min="4" max="4" width="43.42578125" customWidth="1"/>
     <col min="5" max="8" width="23" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="22" customWidth="1"/>
+    <col min="9" max="9" width="61.42578125" style="19" customWidth="1"/>
     <col min="10" max="12" width="15.5703125" customWidth="1"/>
     <col min="13" max="1025" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="22" t="s">
-        <v>326</v>
+      <c r="I1" s="19" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2772,7 +2900,7 @@
       <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="19" t="s">
         <v>6</v>
       </c>
       <c r="J2" t="s">
@@ -2796,11 +2924,11 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="22" t="s">
-        <v>480</v>
-      </c>
-      <c r="J5" s="25" t="s">
-        <v>337</v>
+      <c r="I5" s="19" t="s">
+        <v>492</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2809,273 +2937,273 @@
       <c r="F6" t="s">
         <v>119</v>
       </c>
-      <c r="G6" s="18" t="s">
-        <v>337</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>481</v>
-      </c>
-      <c r="J6" s="25" t="s">
-        <v>338</v>
+      <c r="G6" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>475</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>120</v>
       </c>
-      <c r="G7" s="19" t="s">
-        <v>338</v>
-      </c>
-      <c r="I7" s="22" t="s">
-        <v>482</v>
-      </c>
-      <c r="J7" s="25" t="s">
-        <v>339</v>
+      <c r="G7" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>476</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
-        <v>347</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>339</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>483</v>
-      </c>
-      <c r="J8" s="25" t="s">
-        <v>340</v>
+        <v>344</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
-        <v>348</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="I9" s="22" t="s">
-        <v>484</v>
-      </c>
-      <c r="J9" s="25" t="s">
-        <v>341</v>
+        <v>345</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>478</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
-        <v>349</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>341</v>
-      </c>
-      <c r="I10" s="22" t="s">
-        <v>485</v>
-      </c>
-      <c r="J10" s="25" t="s">
-        <v>478</v>
+        <v>346</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>479</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
-        <v>350</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>342</v>
-      </c>
-      <c r="I11" s="22" t="s">
-        <v>486</v>
-      </c>
-      <c r="J11" s="25" t="s">
-        <v>479</v>
+        <v>347</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>480</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
         <v>121</v>
       </c>
-      <c r="G12" s="19" t="s">
-        <v>343</v>
-      </c>
-      <c r="I12" s="22" t="s">
-        <v>487</v>
-      </c>
-      <c r="J12" s="25" t="s">
-        <v>499</v>
+      <c r="G12" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
         <v>122</v>
       </c>
-      <c r="G13" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="I13" s="22" t="s">
-        <v>488</v>
-      </c>
-      <c r="J13" s="25" t="s">
-        <v>500</v>
+      <c r="G13" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>482</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>123</v>
       </c>
-      <c r="G14" s="19" t="s">
-        <v>366</v>
-      </c>
-      <c r="I14" s="22" t="s">
-        <v>489</v>
-      </c>
-      <c r="J14" s="25" t="s">
-        <v>501</v>
+      <c r="G14" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>483</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>124</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="16">
         <v>10</v>
       </c>
-      <c r="I15" s="22" t="s">
-        <v>490</v>
-      </c>
-      <c r="J15" s="25" t="s">
-        <v>502</v>
+      <c r="I15" s="19" t="s">
+        <v>484</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
         <v>125</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="16">
         <v>11</v>
       </c>
-      <c r="I16" s="22" t="s">
-        <v>491</v>
-      </c>
-      <c r="J16" s="25" t="s">
-        <v>503</v>
+      <c r="I16" s="19" t="s">
+        <v>485</v>
+      </c>
+      <c r="J16" s="22" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="17" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
         <v>126</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="16">
         <v>12</v>
       </c>
-      <c r="I17" s="22" t="s">
-        <v>492</v>
-      </c>
-      <c r="J17" s="25" t="s">
-        <v>504</v>
+      <c r="I17" s="19" t="s">
+        <v>533</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="18" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
         <v>127</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="16">
         <v>13</v>
       </c>
-      <c r="I18" s="22" t="s">
-        <v>493</v>
-      </c>
-      <c r="J18" s="25" t="s">
-        <v>505</v>
+      <c r="I18" s="19" t="s">
+        <v>486</v>
+      </c>
+      <c r="J18" s="22" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="19" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
         <v>128</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="16">
         <v>14</v>
       </c>
-      <c r="I19" s="22" t="s">
-        <v>494</v>
-      </c>
-      <c r="J19" s="25" t="s">
-        <v>506</v>
+      <c r="I19" s="19" t="s">
+        <v>487</v>
+      </c>
+      <c r="J19" s="22" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="20" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
         <v>129</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="16">
         <v>15</v>
       </c>
-      <c r="I20" s="22" t="s">
-        <v>495</v>
-      </c>
-      <c r="J20" s="25" t="s">
-        <v>507</v>
+      <c r="I20" s="19" t="s">
+        <v>488</v>
+      </c>
+      <c r="J20" s="22" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="21" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
         <v>130</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G21" s="16">
         <v>16</v>
       </c>
-      <c r="I21" s="22" t="s">
-        <v>496</v>
-      </c>
-      <c r="J21" s="25" t="s">
-        <v>508</v>
+      <c r="I21" s="19" t="s">
+        <v>489</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="22" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
-        <v>351</v>
-      </c>
-      <c r="G22" s="19">
+        <v>348</v>
+      </c>
+      <c r="G22" s="16">
         <v>17</v>
       </c>
-      <c r="I22" s="22" t="s">
-        <v>497</v>
-      </c>
-      <c r="J22" s="25" t="s">
-        <v>509</v>
+      <c r="I22" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="23" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
-        <v>352</v>
-      </c>
-      <c r="G23" s="19">
+        <v>349</v>
+      </c>
+      <c r="G23" s="16">
         <v>18</v>
       </c>
-      <c r="I23" s="22" t="s">
-        <v>403</v>
-      </c>
-      <c r="J23" s="25" t="s">
-        <v>181</v>
+      <c r="I23" s="19" t="s">
+        <v>491</v>
+      </c>
+      <c r="J23" s="22" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="24" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
         <v>137</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="16">
         <v>19</v>
       </c>
-      <c r="I24" s="22" t="s">
-        <v>498</v>
-      </c>
-      <c r="J24" s="25" t="s">
-        <v>382</v>
+      <c r="I24" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="J24" s="22" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F25" t="s">
-        <v>353</v>
-      </c>
-      <c r="G25" s="19">
+        <v>350</v>
+      </c>
+      <c r="G25" s="16">
         <v>20</v>
       </c>
     </row>
@@ -3083,7 +3211,7 @@
       <c r="F26" t="s">
         <v>131</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26" s="16">
         <v>21</v>
       </c>
     </row>
@@ -3091,7 +3219,7 @@
       <c r="F27" t="s">
         <v>132</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G27" s="16">
         <v>22</v>
       </c>
     </row>
@@ -3099,7 +3227,7 @@
       <c r="F28" t="s">
         <v>133</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="16">
         <v>23</v>
       </c>
     </row>
@@ -3107,7 +3235,7 @@
       <c r="F29" t="s">
         <v>134</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29" s="16">
         <v>24</v>
       </c>
     </row>
@@ -3115,15 +3243,15 @@
       <c r="F30" t="s">
         <v>135</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G30" s="16">
         <v>25</v>
       </c>
     </row>
     <row r="31" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
-        <v>354</v>
-      </c>
-      <c r="G31" s="19">
+        <v>351</v>
+      </c>
+      <c r="G31" s="16">
         <v>26</v>
       </c>
     </row>
@@ -3131,15 +3259,15 @@
       <c r="F32" t="s">
         <v>136</v>
       </c>
-      <c r="G32" s="19">
+      <c r="G32" s="16">
         <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F33" t="s">
-        <v>355</v>
-      </c>
-      <c r="G33" s="19">
+        <v>352</v>
+      </c>
+      <c r="G33" s="16">
         <v>28</v>
       </c>
     </row>
@@ -3147,21 +3275,21 @@
       <c r="F34" t="s">
         <v>69</v>
       </c>
-      <c r="G34" s="19" t="s">
-        <v>181</v>
+      <c r="G34" s="16" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F35" t="s">
         <v>118</v>
       </c>
-      <c r="G35" s="19">
+      <c r="G35" s="16">
         <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B36" t="s">
         <v>10</v>
@@ -3169,7 +3297,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B37" t="s">
         <v>9</v>
@@ -3180,47 +3308,47 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F38" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G38" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F39" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G39" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F40" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G40" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F41" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G41" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F42" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G42" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B43" t="s">
         <v>108</v>
@@ -3233,7 +3361,7 @@
       <c r="B44" t="s">
         <v>10</v>
       </c>
-      <c r="F44" s="20" t="s">
+      <c r="F44" s="17" t="s">
         <v>13</v>
       </c>
       <c r="G44">
@@ -3241,7 +3369,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F45" s="20" t="s">
+      <c r="F45" s="17" t="s">
         <v>12</v>
       </c>
       <c r="G45">
@@ -3250,7 +3378,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B46" t="s">
         <v>10</v>
@@ -3258,11 +3386,11 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="22" t="s">
-        <v>453</v>
-      </c>
-      <c r="J46" s="25" t="s">
-        <v>337</v>
+      <c r="I46" s="19" t="s">
+        <v>448</v>
+      </c>
+      <c r="J46" s="22">
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -3272,25 +3400,25 @@
       <c r="G47">
         <v>1</v>
       </c>
-      <c r="I47" s="22" t="s">
-        <v>454</v>
-      </c>
-      <c r="J47" s="25" t="s">
-        <v>338</v>
+      <c r="I47" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="J47" s="22">
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F48" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G48">
         <v>2</v>
       </c>
-      <c r="I48" s="22" t="s">
-        <v>455</v>
-      </c>
-      <c r="J48" s="25" t="s">
-        <v>339</v>
+      <c r="I48" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="J48" s="22">
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -3300,11 +3428,11 @@
       <c r="G49">
         <v>3</v>
       </c>
-      <c r="I49" s="22" t="s">
-        <v>456</v>
-      </c>
-      <c r="J49" s="25" t="s">
-        <v>341</v>
+      <c r="I49" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="J49" s="22">
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -3314,11 +3442,11 @@
       <c r="G50">
         <v>0</v>
       </c>
-      <c r="I50" s="22" t="s">
-        <v>457</v>
-      </c>
-      <c r="J50" s="25" t="s">
-        <v>342</v>
+      <c r="I50" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="J50" s="22">
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -3328,40 +3456,40 @@
       <c r="G51">
         <v>99</v>
       </c>
-      <c r="I51" s="22" t="s">
-        <v>458</v>
-      </c>
-      <c r="J51" s="25" t="s">
-        <v>343</v>
+      <c r="I51" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="J51" s="22">
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I52" s="22" t="s">
-        <v>459</v>
-      </c>
-      <c r="J52" s="25" t="s">
-        <v>344</v>
+      <c r="I52" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="J52" s="22">
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I53" s="22" t="s">
-        <v>460</v>
-      </c>
-      <c r="J53" s="25" t="s">
-        <v>181</v>
+      <c r="I53" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="J53" s="22">
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I54" s="22" t="s">
-        <v>461</v>
-      </c>
-      <c r="J54" s="25" t="s">
-        <v>382</v>
+      <c r="I54" s="19" t="s">
+        <v>456</v>
+      </c>
+      <c r="J54" s="22">
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B56" t="s">
         <v>9</v>
@@ -3369,53 +3497,53 @@
       <c r="F56" t="s">
         <v>11</v>
       </c>
-      <c r="I56" s="22" t="s">
-        <v>387</v>
-      </c>
-      <c r="J56" s="25" t="s">
-        <v>337</v>
+      <c r="I56" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="J56" s="22" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F57" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G57" t="s">
-        <v>377</v>
-      </c>
-      <c r="I57" s="22" t="s">
-        <v>388</v>
-      </c>
-      <c r="J57" s="25" t="s">
-        <v>338</v>
+        <v>374</v>
+      </c>
+      <c r="I57" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="J57" s="22" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F58" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G58" t="s">
-        <v>378</v>
-      </c>
-      <c r="I58" s="22" t="s">
-        <v>389</v>
-      </c>
-      <c r="J58" s="25" t="s">
-        <v>339</v>
+        <v>375</v>
+      </c>
+      <c r="I58" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="J58" s="22" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F59" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G59" t="s">
-        <v>379</v>
-      </c>
-      <c r="I59" s="22" t="s">
-        <v>390</v>
-      </c>
-      <c r="J59" s="25" t="s">
-        <v>340</v>
+        <v>376</v>
+      </c>
+      <c r="I59" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="J59" s="22" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -3423,12 +3551,12 @@
         <v>141</v>
       </c>
       <c r="G60" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B61" t="s">
         <v>9</v>
@@ -3436,11 +3564,11 @@
       <c r="F61" t="s">
         <v>11</v>
       </c>
-      <c r="I61" s="22" t="s">
-        <v>510</v>
-      </c>
-      <c r="J61" s="25" t="s">
-        <v>337</v>
+      <c r="I61" s="19" t="s">
+        <v>504</v>
+      </c>
+      <c r="J61" s="22" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -3450,25 +3578,25 @@
       <c r="G62">
         <v>1</v>
       </c>
-      <c r="I62" s="22" t="s">
-        <v>435</v>
-      </c>
-      <c r="J62" s="25" t="s">
-        <v>338</v>
+      <c r="I62" s="19" t="s">
+        <v>430</v>
+      </c>
+      <c r="J62" s="22" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F63" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G63">
         <v>2</v>
       </c>
-      <c r="I63" s="22" t="s">
-        <v>511</v>
-      </c>
-      <c r="J63" s="25" t="s">
-        <v>339</v>
+      <c r="I63" s="19" t="s">
+        <v>505</v>
+      </c>
+      <c r="J63" s="22" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -3478,11 +3606,11 @@
       <c r="G64">
         <v>0</v>
       </c>
-      <c r="I64" s="22" t="s">
-        <v>512</v>
-      </c>
-      <c r="J64" s="25" t="s">
-        <v>382</v>
+      <c r="I64" s="19" t="s">
+        <v>506</v>
+      </c>
+      <c r="J64" s="22" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -3495,7 +3623,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B66" t="s">
         <v>108</v>
@@ -3503,7 +3631,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B67" t="s">
         <v>108</v>
@@ -3511,7 +3639,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B68" t="s">
         <v>108</v>
@@ -3519,428 +3647,431 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B69" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="21" t="s">
-        <v>381</v>
+      <c r="A70" s="36" t="s">
+        <v>378</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I70" s="22" t="s">
-        <v>397</v>
-      </c>
-      <c r="J70" s="27" t="s">
+      <c r="I70" s="19" t="s">
+        <v>394</v>
+      </c>
+      <c r="J70" s="24" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I71" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="J71" s="24" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I72" s="19" t="s">
+        <v>396</v>
+      </c>
+      <c r="J72" s="24" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J73" s="24"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>457</v>
+      </c>
+      <c r="B74" t="s">
+        <v>9</v>
+      </c>
+      <c r="I74" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="J74" s="22" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I75" s="19" t="s">
+        <v>458</v>
+      </c>
+      <c r="J75" s="22" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I76" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="J76" s="22" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I77" s="19" t="s">
+        <v>460</v>
+      </c>
+      <c r="J77" s="22" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I78" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="J78" s="22" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I71" s="22" t="s">
-        <v>398</v>
-      </c>
-      <c r="J71" s="27" t="s">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I79" s="19" t="s">
+        <v>462</v>
+      </c>
+      <c r="J79" s="22" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I72" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="J72" s="27" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>462</v>
-      </c>
-      <c r="B73" t="s">
-        <v>9</v>
-      </c>
-      <c r="I73" s="22" t="s">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I80" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="J73" s="25" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I74" s="22" t="s">
+      <c r="J80" s="22" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I81" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="J74" s="25" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I75" s="22" t="s">
+      <c r="J81" s="22" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I82" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="J75" s="25" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I76" s="22" t="s">
+      <c r="J82" s="22" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I83" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="J76" s="25" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I77" s="22" t="s">
+      <c r="J83" s="22" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I84" s="19" t="s">
         <v>467</v>
       </c>
-      <c r="J77" s="25" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I78" s="22" t="s">
+      <c r="J84" s="22" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I85" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="J78" s="25" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I79" s="22" t="s">
+      <c r="J85" s="22" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I86" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="J79" s="25" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I80" s="22" t="s">
+      <c r="J86" s="22" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I87" s="19" t="s">
         <v>470</v>
       </c>
-      <c r="J80" s="25" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I81" s="22" t="s">
-        <v>471</v>
-      </c>
-      <c r="J81" s="25" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I82" s="22" t="s">
-        <v>472</v>
-      </c>
-      <c r="J82" s="25" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I83" s="22" t="s">
-        <v>473</v>
-      </c>
-      <c r="J83" s="25" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I84" s="22" t="s">
+      <c r="J87" s="22" t="s">
         <v>474</v>
       </c>
-      <c r="J84" s="25" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I85" s="22" t="s">
-        <v>475</v>
-      </c>
-      <c r="J85" s="25" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I86" s="22" t="s">
-        <v>386</v>
-      </c>
-      <c r="J86" s="25" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>513</v>
-      </c>
-      <c r="B88" t="s">
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>507</v>
+      </c>
+      <c r="B89" t="s">
         <v>10</v>
       </c>
-      <c r="I88" s="9" t="s">
+      <c r="I89" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J88" s="9"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I89" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J89" s="9">
-        <v>0</v>
-      </c>
+      <c r="J89" s="9"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I90" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J90" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I91" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J90" s="9">
+      <c r="J91" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>508</v>
+      </c>
+      <c r="B93" t="s">
+        <v>9</v>
+      </c>
+      <c r="I93" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="J93" s="22" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I94" s="19" t="s">
+        <v>509</v>
+      </c>
+      <c r="J94" s="22" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I95" s="19" t="s">
+        <v>510</v>
+      </c>
+      <c r="J95" s="22" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I96" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="J96" s="22" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I97" s="19" t="s">
+        <v>512</v>
+      </c>
+      <c r="J97" s="22" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I98" s="19" t="s">
+        <v>513</v>
+      </c>
+      <c r="J98" s="22" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I99" s="19" t="s">
         <v>514</v>
       </c>
-      <c r="B92" t="s">
+      <c r="J99" s="22" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I100" s="19" t="s">
+        <v>515</v>
+      </c>
+      <c r="J100" s="22" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I101" s="19" t="s">
+        <v>516</v>
+      </c>
+      <c r="J101" s="22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I102" s="19" t="s">
+        <v>517</v>
+      </c>
+      <c r="J102" s="22" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>518</v>
+      </c>
+      <c r="B103" t="s">
         <v>9</v>
       </c>
-      <c r="I92" s="22" t="s">
-        <v>318</v>
-      </c>
-      <c r="J92" s="25" t="s">
+      <c r="I103" s="19" t="s">
+        <v>519</v>
+      </c>
+      <c r="J103" s="22" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I104" s="19" t="s">
+        <v>509</v>
+      </c>
+      <c r="J104" s="22" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I105" s="19" t="s">
+        <v>520</v>
+      </c>
+      <c r="J105" s="22" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I106" s="19" t="s">
+        <v>521</v>
+      </c>
+      <c r="J106" s="22" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I93" s="22" t="s">
-        <v>515</v>
-      </c>
-      <c r="J93" s="25" t="s">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I107" s="19" t="s">
+        <v>522</v>
+      </c>
+      <c r="J107" s="22" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I94" s="22" t="s">
-        <v>516</v>
-      </c>
-      <c r="J94" s="25" t="s">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I108" s="19" t="s">
+        <v>523</v>
+      </c>
+      <c r="J108" s="22" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I95" s="22" t="s">
-        <v>517</v>
-      </c>
-      <c r="J95" s="25" t="s">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I109" s="19" t="s">
+        <v>524</v>
+      </c>
+      <c r="J109" s="22" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I96" s="22" t="s">
-        <v>518</v>
-      </c>
-      <c r="J96" s="25" t="s">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I110" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="J110" s="22" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I97" s="22" t="s">
-        <v>519</v>
-      </c>
-      <c r="J97" s="25" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I98" s="22" t="s">
-        <v>520</v>
-      </c>
-      <c r="J98" s="25" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I99" s="22" t="s">
-        <v>521</v>
-      </c>
-      <c r="J99" s="25" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I100" s="22" t="s">
-        <v>522</v>
-      </c>
-      <c r="J100" s="25" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I101" s="22" t="s">
-        <v>523</v>
-      </c>
-      <c r="J101" s="25" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>524</v>
-      </c>
-      <c r="B102" t="s">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I111" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="J111" s="22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I112" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="J112" s="22" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>526</v>
+      </c>
+      <c r="B113" t="s">
         <v>9</v>
       </c>
-      <c r="I102" s="22" t="s">
-        <v>525</v>
-      </c>
-      <c r="J102" s="25" t="s">
+      <c r="I113" s="19" t="s">
+        <v>527</v>
+      </c>
+      <c r="J113" s="22" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I114" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="J114" s="22" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I115" s="19" t="s">
+        <v>529</v>
+      </c>
+      <c r="J115" s="22" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I116" s="19" t="s">
+        <v>530</v>
+      </c>
+      <c r="J116" s="22" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I103" s="22" t="s">
-        <v>515</v>
-      </c>
-      <c r="J103" s="25" t="s">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I117" s="19" t="s">
+        <v>531</v>
+      </c>
+      <c r="J117" s="22" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I104" s="22" t="s">
-        <v>526</v>
-      </c>
-      <c r="J104" s="25" t="s">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I118" s="19" t="s">
+        <v>532</v>
+      </c>
+      <c r="J118" s="22" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I105" s="22" t="s">
-        <v>527</v>
-      </c>
-      <c r="J105" s="25" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I106" s="22" t="s">
-        <v>528</v>
-      </c>
-      <c r="J106" s="25" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I107" s="22" t="s">
-        <v>529</v>
-      </c>
-      <c r="J107" s="25" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I108" s="22" t="s">
-        <v>530</v>
-      </c>
-      <c r="J108" s="25" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I109" s="22" t="s">
-        <v>531</v>
-      </c>
-      <c r="J109" s="25" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I110" s="22" t="s">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I119" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="J110" s="25" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I111" s="22" t="s">
-        <v>386</v>
-      </c>
-      <c r="J111" s="25" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>532</v>
-      </c>
-      <c r="B112" t="s">
-        <v>9</v>
-      </c>
-      <c r="I112" s="22" t="s">
-        <v>533</v>
-      </c>
-      <c r="J112" s="25" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="113" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I113" s="22" t="s">
-        <v>534</v>
-      </c>
-      <c r="J113" s="25" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="114" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I114" s="22" t="s">
-        <v>535</v>
-      </c>
-      <c r="J114" s="25" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="115" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I115" s="22" t="s">
-        <v>536</v>
-      </c>
-      <c r="J115" s="25" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="116" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I116" s="22" t="s">
-        <v>537</v>
-      </c>
-      <c r="J116" s="25" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="117" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I117" s="22" t="s">
-        <v>538</v>
-      </c>
-      <c r="J117" s="25" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="118" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I118" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="J118" s="25" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="119" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I119" s="22" t="s">
-        <v>386</v>
-      </c>
-      <c r="J119" s="25" t="s">
-        <v>382</v>
+      <c r="J119" s="22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I120" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="J120" s="22" t="s">
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -3951,10 +4082,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H127"/>
+  <dimension ref="A1:N138"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3962,21 +4093,26 @@
     <col min="1" max="1" width="29.5703125" style="11" customWidth="1"/>
     <col min="2" max="3" width="18.5703125" style="11" customWidth="1"/>
     <col min="4" max="4" width="44.5703125" style="11" customWidth="1"/>
-    <col min="5" max="7" width="18.5703125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" style="29" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" style="11" customWidth="1"/>
     <col min="8" max="8" width="22.42578125" style="11" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" style="29" customWidth="1"/>
     <col min="10" max="16384" width="11.42578125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="F1" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="F1" s="42" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="19" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -3992,7 +4128,7 @@
       <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="42" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="10" t="s">
@@ -4001,8 +4137,17 @@
       <c r="H2" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="I2" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>15</v>
       </c>
@@ -4012,224 +4157,541 @@
       <c r="D3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="29" t="s">
+        <v>324</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="45" t="s">
+        <v>378</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>394</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="N4" s="23"/>
+    </row>
+    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="F5" s="20"/>
+      <c r="I5" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="N5" s="23"/>
+    </row>
+    <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+      <c r="F6" s="20"/>
+      <c r="I6" s="19" t="s">
+        <v>396</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>379</v>
+      </c>
+      <c r="N6" s="23"/>
+    </row>
+    <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="23"/>
+      <c r="N7" s="23"/>
+    </row>
+    <row r="8" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" s="23"/>
+    </row>
+    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F9" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="N9" s="23"/>
+    </row>
+    <row r="10" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="N10" s="23"/>
+    </row>
+    <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>336</v>
+      </c>
+      <c r="N11" s="23"/>
+    </row>
+    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="N12" s="23"/>
+    </row>
+    <row r="13" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>379</v>
+      </c>
+      <c r="N13" s="23"/>
+    </row>
+    <row r="14" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="I14" s="20"/>
+      <c r="J14" s="23"/>
+      <c r="N14" s="23"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F16" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="J16" s="22" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F17" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F18" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="J18" s="22" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F19" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="J19" s="22" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F21" s="29" t="s">
         <v>327</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G21" s="38">
+        <v>1</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>538</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F22" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="G22" s="38">
+        <v>2</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>539</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F23" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="G23" s="38">
+        <v>3</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>540</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F24" s="29" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="B4" s="10" t="s">
+      <c r="G24" s="39">
+        <v>4</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>541</v>
+      </c>
+      <c r="J24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F25" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="G25" s="39">
+        <v>8</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>542</v>
+      </c>
+      <c r="J25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F26" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="G26" s="39">
+        <v>6</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>543</v>
+      </c>
+      <c r="J26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F27" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="G27" s="39">
+        <v>7</v>
+      </c>
+      <c r="I27" s="19" t="s">
+        <v>544</v>
+      </c>
+      <c r="J27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F28" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="G28" s="39">
+        <v>8</v>
+      </c>
+      <c r="I28" s="19" t="s">
+        <v>545</v>
+      </c>
+      <c r="J28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F29" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29" s="39">
+        <v>0</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>546</v>
+      </c>
+      <c r="J29">
         <v>9</v>
       </c>
-      <c r="F4" s="11" t="s">
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F30" s="50" t="s">
+        <v>555</v>
+      </c>
+      <c r="G30" s="11">
+        <v>10</v>
+      </c>
+      <c r="I30" s="19" t="s">
+        <v>547</v>
+      </c>
+      <c r="J30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F31" s="29" t="s">
+        <v>333</v>
+      </c>
+      <c r="G31" s="40">
+        <v>20</v>
+      </c>
+      <c r="I31" s="19" t="s">
+        <v>548</v>
+      </c>
+      <c r="J31">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F5" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F6" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F7" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F8" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>345</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F10" s="11" t="s">
-        <v>330</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F11" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F12" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F13" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F14" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F15" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F16" s="11" t="s">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F32" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="G32" s="40">
+        <v>99</v>
+      </c>
+      <c r="I32" s="19" t="s">
+        <v>549</v>
+      </c>
+      <c r="J32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="I33" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="J33">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I34" s="19" t="s">
+        <v>551</v>
+      </c>
+      <c r="J34">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I35" s="19" t="s">
+        <v>516</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I36" s="19" t="s">
+        <v>396</v>
+      </c>
+      <c r="J36">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I38" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" s="47" t="s">
         <v>334</v>
       </c>
-      <c r="G16" s="16" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F17" s="11" t="s">
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I39" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="J39" s="47" t="s">
         <v>335</v>
       </c>
-      <c r="G17" s="16" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F18" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F19" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="G19" s="15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F20" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="15">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" s="13"/>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B69" s="13"/>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C72" s="13"/>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C73" s="13"/>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F77" s="14"/>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B82" s="13"/>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B85" s="13"/>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B86" s="13"/>
-      <c r="F86" s="14"/>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B89" s="13"/>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B90" s="13"/>
-      <c r="F90" s="14"/>
-    </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B95" s="13"/>
-      <c r="F95" s="14"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I40" s="46" t="s">
+        <v>383</v>
+      </c>
+      <c r="J40" s="47" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="13"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="13"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C83" s="13"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C84" s="13"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F88" s="43"/>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B93" s="13"/>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B96" s="13"/>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B97" s="13"/>
+      <c r="F97" s="43"/>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B100" s="13"/>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B107" s="13"/>
-      <c r="F107" s="14"/>
-    </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B110" s="13"/>
-      <c r="F110" s="14"/>
-    </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B113" s="13"/>
-      <c r="F113" s="14"/>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B101" s="13"/>
+      <c r="F101" s="43"/>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B106" s="13"/>
+      <c r="F106" s="43"/>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B111" s="13"/>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B118" s="13"/>
-    </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B119" s="13"/>
-    </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B123" s="13"/>
+      <c r="F118" s="43"/>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B121" s="13"/>
+      <c r="F121" s="43"/>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B124" s="13"/>
-      <c r="F124" s="14"/>
-    </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B127" s="13"/>
+      <c r="F124" s="43"/>
+    </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B129" s="13"/>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B130" s="13"/>
+    </row>
+    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B134" s="13"/>
+    </row>
+    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B135" s="13"/>
+      <c r="F135" s="43"/>
+    </row>
+    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B138" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4238,10 +4700,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N215"/>
+  <dimension ref="A1:N219"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L57" sqref="L57:M59"/>
+    <sheetView topLeftCell="A43" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4251,28 +4713,28 @@
     <col min="3" max="3" width="43.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="33.140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="18.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" style="20" customWidth="1"/>
     <col min="7" max="7" width="24.28515625" style="2" customWidth="1"/>
     <col min="8" max="8" width="21.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="17" style="23" customWidth="1"/>
+    <col min="9" max="9" width="17" style="20" customWidth="1"/>
     <col min="10" max="10" width="18.28515625" style="2" customWidth="1"/>
     <col min="11" max="11" width="22.42578125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="24.7109375" style="23" customWidth="1"/>
+    <col min="12" max="12" width="24.7109375" style="20" customWidth="1"/>
     <col min="13" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>325</v>
-      </c>
-      <c r="F1" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="22" t="s">
-        <v>346</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>326</v>
+      <c r="I1" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
@@ -4291,7 +4753,7 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="19" t="s">
         <v>6</v>
       </c>
       <c r="G2" t="s">
@@ -4300,7 +4762,7 @@
       <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="19" t="s">
         <v>6</v>
       </c>
       <c r="J2" t="s">
@@ -4309,7 +4771,7 @@
       <c r="K2" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="19" t="s">
         <v>6</v>
       </c>
       <c r="M2" t="s">
@@ -4321,7 +4783,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>108</v>
@@ -4332,7 +4794,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>108</v>
@@ -4343,94 +4805,94 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>421</v>
+      <c r="A6" s="18" t="s">
+        <v>416</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="L6" s="26"/>
+      <c r="L6" s="23"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>449</v>
+      <c r="A7" s="18" t="s">
+        <v>444</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="L7" s="26"/>
+      <c r="L7" s="23"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="20" t="s">
         <v>11</v>
       </c>
       <c r="L8" t="s">
+        <v>385</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F9" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L9" t="s">
+        <v>384</v>
+      </c>
+      <c r="M9" s="22" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F10" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L10" t="s">
+        <v>386</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F11" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="L11" t="s">
         <v>387</v>
       </c>
-      <c r="M8" s="25" t="s">
+      <c r="M11" s="22" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F9" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="L9" t="s">
-        <v>388</v>
-      </c>
-      <c r="M9" s="25" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F10" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="L10" t="s">
-        <v>389</v>
-      </c>
-      <c r="M10" s="25" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F11" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="L11" t="s">
-        <v>390</v>
-      </c>
-      <c r="M11" s="25" t="s">
-        <v>340</v>
-      </c>
-    </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="20" t="s">
         <v>141</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -4439,126 +4901,126 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="23" t="s">
+      <c r="I14" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="L14" s="23" t="s">
+      <c r="L14" s="20" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F15" s="23" t="s">
-        <v>165</v>
+      <c r="F15" s="20" t="s">
+        <v>163</v>
       </c>
       <c r="G15" s="5">
         <v>60</v>
       </c>
-      <c r="I15" s="23" t="s">
-        <v>173</v>
+      <c r="I15" s="20" t="s">
+        <v>171</v>
       </c>
       <c r="J15" s="5">
         <v>10</v>
       </c>
-      <c r="L15" s="23" t="s">
-        <v>165</v>
+      <c r="L15" s="20" t="s">
+        <v>163</v>
       </c>
       <c r="M15" s="5">
         <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F16" s="23" t="s">
-        <v>166</v>
+      <c r="F16" s="20" t="s">
+        <v>164</v>
       </c>
       <c r="G16" s="5">
         <v>61</v>
       </c>
-      <c r="I16" s="23" t="s">
-        <v>175</v>
+      <c r="I16" s="20" t="s">
+        <v>173</v>
       </c>
       <c r="J16" s="5">
         <v>21</v>
       </c>
-      <c r="L16" s="28" t="s">
-        <v>413</v>
+      <c r="L16" s="25" t="s">
+        <v>410</v>
       </c>
       <c r="M16" s="5">
         <v>40</v>
       </c>
     </row>
     <row r="17" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F17" s="23" t="s">
-        <v>167</v>
+      <c r="F17" s="20" t="s">
+        <v>165</v>
       </c>
       <c r="G17" s="5">
         <v>62</v>
       </c>
-      <c r="I17" s="23" t="s">
-        <v>176</v>
+      <c r="I17" s="49" t="s">
+        <v>554</v>
       </c>
       <c r="J17" s="5">
         <v>22</v>
       </c>
-      <c r="L17" s="28" t="s">
-        <v>173</v>
+      <c r="L17" s="25" t="s">
+        <v>171</v>
       </c>
       <c r="M17" s="5">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F18" s="23" t="s">
-        <v>168</v>
+      <c r="F18" s="20" t="s">
+        <v>166</v>
       </c>
       <c r="G18" s="5">
         <v>70</v>
       </c>
-      <c r="I18" s="23" t="s">
-        <v>178</v>
+      <c r="I18" s="20" t="s">
+        <v>175</v>
       </c>
       <c r="J18" s="5">
         <v>40</v>
       </c>
-      <c r="L18" s="28" t="s">
-        <v>168</v>
+      <c r="L18" s="25" t="s">
+        <v>166</v>
       </c>
       <c r="M18" s="5">
         <v>70</v>
       </c>
     </row>
     <row r="19" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F19" s="23" t="s">
-        <v>169</v>
+      <c r="F19" s="20" t="s">
+        <v>167</v>
       </c>
       <c r="G19" s="5">
         <v>71</v>
       </c>
-      <c r="I19" s="23" t="s">
-        <v>180</v>
+      <c r="I19" s="20" t="s">
+        <v>177</v>
       </c>
       <c r="J19" s="5">
         <v>51</v>
       </c>
-      <c r="L19" s="28"/>
-      <c r="M19" s="36"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="33"/>
     </row>
     <row r="20" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F20" s="23" t="s">
-        <v>170</v>
+      <c r="F20" s="20" t="s">
+        <v>168</v>
       </c>
       <c r="G20" s="5">
         <v>72</v>
       </c>
-      <c r="I20" s="23" t="s">
-        <v>165</v>
+      <c r="I20" s="20" t="s">
+        <v>163</v>
       </c>
       <c r="J20" s="5">
         <v>60</v>
@@ -4566,14 +5028,14 @@
       <c r="M20" s="6"/>
     </row>
     <row r="21" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F21" s="23" t="s">
-        <v>171</v>
+      <c r="F21" s="20" t="s">
+        <v>169</v>
       </c>
       <c r="G21" s="5">
         <v>73</v>
       </c>
-      <c r="I21" s="23" t="s">
-        <v>168</v>
+      <c r="I21" s="20" t="s">
+        <v>166</v>
       </c>
       <c r="J21" s="5">
         <v>70</v>
@@ -4581,105 +5043,105 @@
       <c r="M21" s="5"/>
     </row>
     <row r="22" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F22" s="23" t="s">
-        <v>172</v>
+      <c r="F22" s="20" t="s">
+        <v>170</v>
       </c>
       <c r="G22" s="5">
         <v>74</v>
       </c>
-      <c r="I22" s="23" t="s">
-        <v>169</v>
+      <c r="I22" s="20" t="s">
+        <v>167</v>
       </c>
       <c r="J22" s="5">
         <v>71</v>
       </c>
     </row>
     <row r="23" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F23" s="23" t="s">
-        <v>173</v>
+      <c r="F23" s="20" t="s">
+        <v>171</v>
       </c>
       <c r="G23" s="5">
         <v>10</v>
       </c>
-      <c r="I23" s="23" t="s">
-        <v>172</v>
+      <c r="I23" s="20" t="s">
+        <v>170</v>
       </c>
       <c r="J23" s="5">
         <v>74</v>
       </c>
     </row>
     <row r="24" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F24" s="23" t="s">
-        <v>174</v>
+      <c r="F24" s="20" t="s">
+        <v>172</v>
       </c>
       <c r="G24" s="5">
         <v>20</v>
       </c>
-      <c r="I24" s="23" t="s">
+      <c r="I24" s="20" t="s">
         <v>69</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F25" s="23" t="s">
-        <v>175</v>
+      <c r="F25" s="20" t="s">
+        <v>173</v>
       </c>
       <c r="G25" s="5">
         <v>21</v>
       </c>
     </row>
     <row r="26" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F26" s="23" t="s">
-        <v>176</v>
+      <c r="F26" s="49" t="s">
+        <v>554</v>
       </c>
       <c r="G26" s="5">
         <v>22</v>
       </c>
     </row>
     <row r="27" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F27" s="23" t="s">
-        <v>177</v>
+      <c r="F27" s="20" t="s">
+        <v>174</v>
       </c>
       <c r="G27" s="5">
         <v>30</v>
       </c>
     </row>
     <row r="28" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F28" s="23" t="s">
-        <v>178</v>
+      <c r="F28" s="20" t="s">
+        <v>175</v>
       </c>
       <c r="G28" s="5">
         <v>40</v>
       </c>
     </row>
     <row r="29" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F29" s="23" t="s">
-        <v>179</v>
+      <c r="F29" s="20" t="s">
+        <v>176</v>
       </c>
       <c r="G29" s="5">
         <v>50</v>
       </c>
     </row>
     <row r="30" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F30" s="23" t="s">
-        <v>180</v>
+      <c r="F30" s="20" t="s">
+        <v>177</v>
       </c>
       <c r="G30" s="5">
         <v>51</v>
       </c>
     </row>
     <row r="31" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F31" s="23" t="s">
+      <c r="F31" s="20" t="s">
         <v>69</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F32" s="23" t="s">
+      <c r="F32" s="20" t="s">
         <v>118</v>
       </c>
       <c r="G32" s="5">
@@ -4687,176 +5149,176 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
-        <v>424</v>
+      <c r="A33" s="18" t="s">
+        <v>419</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F33" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="F33" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="H33" s="36" t="s">
+      <c r="H33" s="33" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="18"/>
+      <c r="F34" s="26" t="s">
+        <v>388</v>
+      </c>
+      <c r="G34" s="27" t="s">
+        <v>445</v>
+      </c>
+      <c r="H34" s="33" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="18"/>
+      <c r="F35" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="G35" s="27" t="s">
+        <v>446</v>
+      </c>
+      <c r="H35" s="33" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F36" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="G36" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="H36" s="18" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F37" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G37" s="33" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="21"/>
-      <c r="F34" s="29" t="s">
-        <v>391</v>
-      </c>
-      <c r="G34" s="30" t="s">
-        <v>450</v>
-      </c>
-      <c r="H34" s="36" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="21"/>
-      <c r="F35" s="29" t="s">
-        <v>392</v>
-      </c>
-      <c r="G35" s="30" t="s">
-        <v>451</v>
-      </c>
-      <c r="H35" s="36" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F36" s="28" t="s">
-        <v>419</v>
-      </c>
-      <c r="G36" s="36" t="s">
+      <c r="H37" s="18" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F38" s="25" t="s">
+        <v>423</v>
+      </c>
+      <c r="G38" s="33" t="s">
+        <v>426</v>
+      </c>
+      <c r="H38" s="18" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F39" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="G39" s="33" t="s">
+        <v>427</v>
+      </c>
+      <c r="H39" s="18" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F40" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="H36" s="21" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F37" s="28" t="s">
-        <v>426</v>
-      </c>
-      <c r="G37" s="36" t="s">
+      <c r="G40" s="35" t="s">
+        <v>432</v>
+      </c>
+      <c r="H40" s="18" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F41" s="25" t="s">
         <v>430</v>
       </c>
-      <c r="H37" s="21" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F38" s="28" t="s">
+      <c r="G41" s="35" t="s">
+        <v>433</v>
+      </c>
+      <c r="H41" s="18" t="s">
         <v>428</v>
       </c>
-      <c r="G38" s="36" t="s">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F42" s="25" t="s">
         <v>431</v>
       </c>
-      <c r="H38" s="21" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F39" s="28" t="s">
-        <v>420</v>
-      </c>
-      <c r="G39" s="36" t="s">
-        <v>432</v>
-      </c>
-      <c r="H39" s="21" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F40" s="28" t="s">
+      <c r="G42" s="35" t="s">
         <v>434</v>
       </c>
-      <c r="G40" s="38" t="s">
+      <c r="H42" s="18" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F43" s="25" t="s">
+        <v>435</v>
+      </c>
+      <c r="G43" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="H43" s="18" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F44" s="25" t="s">
+        <v>436</v>
+      </c>
+      <c r="G44" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="H44" s="18" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F45" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="H40" s="21" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F41" s="28" t="s">
-        <v>435</v>
-      </c>
-      <c r="G41" s="38" t="s">
-        <v>438</v>
-      </c>
-      <c r="H41" s="21" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F42" s="28" t="s">
-        <v>436</v>
-      </c>
-      <c r="G42" s="38" t="s">
-        <v>439</v>
-      </c>
-      <c r="H42" s="21" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F43" s="28" t="s">
+      <c r="G45" s="35" t="s">
         <v>440</v>
       </c>
-      <c r="G43" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="H43" s="21" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F44" s="28" t="s">
+      <c r="H45" s="18" t="s">
         <v>441</v>
       </c>
-      <c r="G44" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="H44" s="21" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F45" s="28" t="s">
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F46" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="G46" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="H46" s="18" t="s">
         <v>442</v>
       </c>
-      <c r="G45" s="38" t="s">
-        <v>445</v>
-      </c>
-      <c r="H45" s="21" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F46" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="G46" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="H46" s="21" t="s">
-        <v>447</v>
-      </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F47" s="23" t="s">
+      <c r="F47" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="G47" s="38" t="s">
-        <v>382</v>
-      </c>
-      <c r="H47" s="21" t="s">
-        <v>447</v>
+      <c r="G47" s="35" t="s">
+        <v>379</v>
+      </c>
+      <c r="H47" s="18" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -4875,382 +5337,333 @@
       <c r="B51" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F51" s="23" t="s">
+      <c r="F51" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="L51" s="28" t="s">
-        <v>418</v>
-      </c>
-      <c r="M51" s="30" t="s">
-        <v>337</v>
+      <c r="L51" s="41" t="s">
+        <v>553</v>
+      </c>
+      <c r="M51" s="27" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F52" s="23" t="s">
+      <c r="F52" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="L52" s="41" t="s">
+        <v>552</v>
+      </c>
+      <c r="M52" s="27" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F53" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="L53" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="M53" s="27" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F54" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="L52" s="28" t="s">
-        <v>417</v>
-      </c>
-      <c r="M52" s="30" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F53" s="23" t="s">
+      <c r="G54" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="G53" s="2" t="s">
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F55" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="L53" s="28" t="s">
-        <v>386</v>
-      </c>
-      <c r="M53" s="30" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F54" s="23" t="s">
+      <c r="G55" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="M55" s="23"/>
+      <c r="N55" s="23"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F56" s="20" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F55" s="23" t="s">
+      <c r="G56" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="M56" s="23"/>
+      <c r="N56" s="23"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F57" s="51" t="s">
+        <v>557</v>
+      </c>
+      <c r="G57" s="52" t="s">
+        <v>556</v>
+      </c>
+      <c r="M57" s="23"/>
+      <c r="N57" s="23"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F58" s="51"/>
+      <c r="M58" s="23"/>
+      <c r="N58" s="23"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L59" s="19" t="s">
+        <v>394</v>
+      </c>
+      <c r="M59" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="N59" s="23"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="18"/>
+      <c r="L60" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="M60" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="N60" s="23"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="18"/>
+      <c r="L61" s="19" t="s">
+        <v>396</v>
+      </c>
+      <c r="M61" s="24" t="s">
+        <v>379</v>
+      </c>
+      <c r="N61" s="23"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M62" s="23"/>
+      <c r="N62" s="23"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="M55" s="26"/>
-      <c r="N55" s="26"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F56" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="M56" s="26"/>
-      <c r="N56" s="26"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="21" t="s">
-        <v>381</v>
-      </c>
-      <c r="B57" s="2" t="s">
+      <c r="B63" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L57" s="22" t="s">
-        <v>397</v>
-      </c>
-      <c r="M57" s="27" t="s">
-        <v>337</v>
-      </c>
-      <c r="N57" s="26"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="21"/>
-      <c r="L58" s="22" t="s">
-        <v>398</v>
-      </c>
-      <c r="M58" s="27" t="s">
-        <v>338</v>
-      </c>
-      <c r="N58" s="26"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="21"/>
-      <c r="L59" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="M59" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="N59" s="26"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M60" s="26"/>
-      <c r="N60" s="26"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F61" s="23" t="s">
+      <c r="F63" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="L61" s="29" t="s">
+      <c r="L63" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="N61" s="26"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F62" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="L62" s="22" t="s">
-        <v>383</v>
-      </c>
-      <c r="M62" s="27" t="s">
-        <v>337</v>
-      </c>
-      <c r="N62" s="26"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F63" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="G63" s="2" t="s">
+      <c r="N63" s="23"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F64" s="20" t="s">
         <v>194</v>
-      </c>
-      <c r="L63" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="M63" s="27" t="s">
-        <v>338</v>
-      </c>
-      <c r="N63" s="26"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F64" s="23" t="s">
-        <v>145</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="L64" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="M64" s="27" t="s">
-        <v>339</v>
-      </c>
-      <c r="N64" s="26"/>
+      <c r="L64" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="M64" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="N64" s="23"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F65" s="23" t="s">
+      <c r="F65" s="51" t="s">
+        <v>558</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L65" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="M65" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="N65" s="23"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F66" s="53" t="s">
+        <v>468</v>
+      </c>
+      <c r="G66" s="54" t="s">
+        <v>559</v>
+      </c>
+      <c r="L66" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="M66" s="24" t="s">
+        <v>336</v>
+      </c>
+      <c r="N66" s="23"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F67" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="L67" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="M67" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="N67" s="23"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F68" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="L68" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="M68" s="24" t="s">
+        <v>379</v>
+      </c>
+      <c r="N68" s="23"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F69" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="G65" s="2" t="s">
+      <c r="G69" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M69" s="23"/>
+      <c r="N69" s="23"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F70" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="L65" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="M65" s="27" t="s">
-        <v>340</v>
-      </c>
-      <c r="N65" s="26"/>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F66" s="23" t="s">
+      <c r="G70" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="G66" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="L66" s="22" t="s">
-        <v>386</v>
-      </c>
-      <c r="M66" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="N66" s="26"/>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F67" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="M67" s="26"/>
-      <c r="N67" s="26"/>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>108</v>
-      </c>
+      <c r="M70" s="23"/>
+      <c r="N70" s="23"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>208</v>
-      </c>
+      <c r="M71" s="23"/>
+      <c r="N71" s="23"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>209</v>
+        <v>108</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>211</v>
+        <v>108</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>206</v>
+        <v>14</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="F78" s="24"/>
-      <c r="I78" s="24"/>
-      <c r="L78" s="24"/>
-    </row>
-    <row r="79" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="23"/>
-      <c r="J79" s="2"/>
-      <c r="K79" s="2"/>
-      <c r="L79" s="23"/>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
-    </row>
-    <row r="80" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="H80" s="2"/>
-      <c r="I80" s="23"/>
-      <c r="J80" s="2"/>
-      <c r="K80" s="2"/>
-      <c r="L80" s="23"/>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="H81" s="2"/>
-      <c r="I81" s="23"/>
-      <c r="J81" s="2"/>
-      <c r="K81" s="2"/>
-      <c r="L81" s="23"/>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
-    </row>
-    <row r="82" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="23"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="23"/>
-      <c r="J82" s="2"/>
-      <c r="K82" s="2"/>
-      <c r="L82" s="23"/>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F82" s="21"/>
+      <c r="I82" s="21"/>
+      <c r="L82" s="21"/>
     </row>
     <row r="83" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="21" t="s">
-        <v>405</v>
+      <c r="A83" s="37" t="s">
+        <v>401</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>9</v>
@@ -5258,18 +5671,16 @@
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
-      <c r="F83" s="23"/>
+      <c r="F83" s="20" t="s">
+        <v>11</v>
+      </c>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
-      <c r="I83" s="23"/>
+      <c r="I83" s="20"/>
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
-      <c r="L83" s="22" t="s">
-        <v>400</v>
-      </c>
-      <c r="M83" s="25" t="s">
-        <v>337</v>
-      </c>
+      <c r="L83" s="20"/>
+      <c r="M83" s="2"/>
       <c r="N83" s="2"/>
     </row>
     <row r="84" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -5278,18 +5689,18 @@
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
-      <c r="F84" s="23"/>
-      <c r="G84" s="2"/>
+      <c r="F84" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="H84" s="2"/>
-      <c r="I84" s="23"/>
+      <c r="I84" s="20"/>
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
-      <c r="L84" s="22" t="s">
-        <v>401</v>
-      </c>
-      <c r="M84" s="25" t="s">
-        <v>338</v>
-      </c>
+      <c r="L84" s="20"/>
+      <c r="M84" s="2"/>
       <c r="N84" s="2"/>
     </row>
     <row r="85" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -5298,18 +5709,18 @@
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
-      <c r="F85" s="23"/>
-      <c r="G85" s="2"/>
+      <c r="F85" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>215</v>
+      </c>
       <c r="H85" s="2"/>
-      <c r="I85" s="23"/>
+      <c r="I85" s="20"/>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
-      <c r="L85" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="M85" s="25" t="s">
-        <v>339</v>
-      </c>
+      <c r="L85" s="20"/>
+      <c r="M85" s="2"/>
       <c r="N85" s="2"/>
     </row>
     <row r="86" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -5318,38 +5729,38 @@
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
-      <c r="F86" s="23"/>
+      <c r="F86" s="20"/>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
-      <c r="I86" s="23"/>
+      <c r="I86" s="20"/>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
-      <c r="L86" s="22" t="s">
-        <v>403</v>
-      </c>
-      <c r="M86" s="25" t="s">
-        <v>181</v>
-      </c>
+      <c r="L86" s="20"/>
+      <c r="M86" s="2"/>
       <c r="N86" s="2"/>
     </row>
     <row r="87" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="21" t="s">
-        <v>407</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>108</v>
+      <c r="A87" s="18" t="s">
+        <v>402</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
-      <c r="F87" s="23"/>
+      <c r="F87" s="20"/>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
-      <c r="I87" s="23"/>
+      <c r="I87" s="20"/>
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
-      <c r="L87" s="22"/>
-      <c r="M87" s="25"/>
+      <c r="L87" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="M87" s="22" t="s">
+        <v>334</v>
+      </c>
       <c r="N87" s="2"/>
     </row>
     <row r="88" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -5358,14 +5769,18 @@
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
-      <c r="F88" s="23"/>
+      <c r="F88" s="20"/>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
-      <c r="I88" s="23"/>
+      <c r="I88" s="20"/>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
-      <c r="L88" s="22"/>
-      <c r="M88" s="25"/>
+      <c r="L88" s="19" t="s">
+        <v>398</v>
+      </c>
+      <c r="M88" s="22" t="s">
+        <v>335</v>
+      </c>
       <c r="N88" s="2"/>
     </row>
     <row r="89" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -5374,483 +5789,527 @@
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
-      <c r="F89" s="23"/>
+      <c r="F89" s="20"/>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
-      <c r="I89" s="23"/>
+      <c r="I89" s="20"/>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
-      <c r="L89" s="23"/>
-      <c r="M89" s="2"/>
+      <c r="L89" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="M89" s="22" t="s">
+        <v>336</v>
+      </c>
       <c r="N89" s="2"/>
     </row>
     <row r="90" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="33" t="s">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="M90" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="N90" s="2"/>
+    </row>
+    <row r="91" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="20"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="19"/>
+      <c r="M91" s="22"/>
+      <c r="N91" s="2"/>
+    </row>
+    <row r="92" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="20"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="19"/>
+      <c r="M92" s="22"/>
+      <c r="N92" s="2"/>
+    </row>
+    <row r="93" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="20"/>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
+    </row>
+    <row r="94" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="30" t="s">
+        <v>390</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F94" s="29"/>
+      <c r="I94" s="29"/>
+      <c r="L94" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="M94" s="22" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="28"/>
+      <c r="F95" s="29"/>
+      <c r="I95" s="29"/>
+      <c r="L95" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="M95" s="22" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="28"/>
+      <c r="F96" s="29"/>
+      <c r="I96" s="29"/>
+      <c r="L96" s="19" t="s">
         <v>393</v>
       </c>
-      <c r="B90" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F90" s="32"/>
-      <c r="I90" s="32"/>
-      <c r="L90" s="22" t="s">
-        <v>394</v>
-      </c>
-      <c r="M90" s="25" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="31"/>
-      <c r="F91" s="32"/>
-      <c r="I91" s="32"/>
-      <c r="L91" s="22" t="s">
-        <v>395</v>
-      </c>
-      <c r="M91" s="25" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="31"/>
-      <c r="F92" s="32"/>
-      <c r="I92" s="32"/>
-      <c r="L92" s="22" t="s">
-        <v>396</v>
-      </c>
-      <c r="M92" s="25" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="31"/>
-      <c r="F93" s="32"/>
-      <c r="I93" s="32"/>
-      <c r="L93" s="22" t="s">
+      <c r="M96" s="22" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="28"/>
+      <c r="F97" s="29"/>
+      <c r="I97" s="29"/>
+      <c r="L97" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="M93" s="25" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" s="31"/>
-      <c r="B94" s="11"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="11"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="32"/>
-      <c r="G94" s="11"/>
-      <c r="H94" s="11"/>
-      <c r="I94" s="32"/>
-      <c r="J94" s="11"/>
-      <c r="K94" s="11"/>
-      <c r="L94" s="22" t="s">
-        <v>386</v>
-      </c>
-      <c r="M94" s="25" t="s">
-        <v>382</v>
-      </c>
-      <c r="N94" s="11"/>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" s="31"/>
-      <c r="B95" s="11"/>
-      <c r="C95" s="11"/>
-      <c r="D95" s="11"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="32"/>
-      <c r="G95" s="11"/>
-      <c r="H95" s="11"/>
-      <c r="I95" s="32"/>
-      <c r="J95" s="11"/>
-      <c r="K95" s="11"/>
-      <c r="L95" s="22"/>
-      <c r="M95" s="25"/>
-      <c r="N95" s="11"/>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A96" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F96" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="L96" s="29"/>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F97" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="L97" s="28"/>
-      <c r="M97" s="30"/>
+      <c r="M97" s="22" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F98" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="L98" s="28"/>
-      <c r="M98" s="30"/>
+      <c r="A98" s="28"/>
+      <c r="B98" s="11"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="29"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="11"/>
+      <c r="I98" s="29"/>
+      <c r="J98" s="11"/>
+      <c r="K98" s="11"/>
+      <c r="L98" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="M98" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="N98" s="11"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A99" s="31"/>
+      <c r="A99" s="28"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
       <c r="D99" s="11"/>
       <c r="E99" s="11"/>
-      <c r="F99" s="32"/>
+      <c r="F99" s="29"/>
       <c r="G99" s="11"/>
       <c r="H99" s="11"/>
-      <c r="I99" s="32"/>
+      <c r="I99" s="29"/>
       <c r="J99" s="11"/>
       <c r="K99" s="11"/>
-      <c r="L99" s="32"/>
-      <c r="M99" s="11"/>
+      <c r="L99" s="19"/>
+      <c r="M99" s="22"/>
       <c r="N99" s="11"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A100" s="31"/>
-      <c r="B100" s="11"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="11"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="32"/>
-      <c r="G100" s="11"/>
-      <c r="H100" s="11"/>
-      <c r="I100" s="32"/>
-      <c r="J100" s="11"/>
-      <c r="K100" s="11"/>
-      <c r="L100" s="32"/>
-      <c r="M100" s="11"/>
-      <c r="N100" s="11"/>
+      <c r="A100" s="37" t="s">
+        <v>403</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F100" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="L100" s="26"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
+      <c r="F101" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="L101" s="25"/>
+      <c r="M101" s="27"/>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F102" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="L102" s="25"/>
+      <c r="M102" s="27"/>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A103" s="28"/>
+      <c r="B103" s="11"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="29"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="11"/>
+      <c r="I103" s="29"/>
+      <c r="J103" s="11"/>
+      <c r="K103" s="11"/>
+      <c r="L103" s="29"/>
+      <c r="M103" s="11"/>
+      <c r="N103" s="11"/>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A104" s="28"/>
+      <c r="B104" s="11"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="29"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="11"/>
+      <c r="I104" s="29"/>
+      <c r="J104" s="11"/>
+      <c r="K104" s="11"/>
+      <c r="L104" s="29"/>
+      <c r="M104" s="11"/>
+      <c r="N104" s="11"/>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F105" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F106" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G106" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F107" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G107" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F108" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F109" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G109" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F110" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G110" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F111" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F112" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G112" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F113" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G113" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B114" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F101" s="23" t="s">
+      <c r="E114" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F114" s="20" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F102" s="23" t="s">
+      <c r="G114" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F115" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G102" s="2">
+      <c r="G115" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F103" s="23" t="s">
+      <c r="H115" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F116" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G103" s="2">
+      <c r="G116" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
+      <c r="H116" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F117" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G117" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F104" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F105" s="23" t="s">
+      <c r="H117" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F118" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G105" s="2">
+      <c r="G118" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F106" s="23" t="s">
+      <c r="H118" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F119" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G106" s="2">
+      <c r="G119" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F107" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F108" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G108" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F109" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G109" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
+      <c r="H119" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F110" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H110" s="2" t="s">
+    </row>
+    <row r="121" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="7" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F111" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G111" s="2">
-        <v>0</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F112" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G112" s="2">
-        <v>1</v>
-      </c>
-      <c r="H112" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F113" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F114" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G114" s="2">
-        <v>0</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F115" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G115" s="2">
-        <v>1</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="F117" s="24"/>
-      <c r="I117" s="24"/>
-      <c r="L117" s="24"/>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="21" t="s">
-        <v>422</v>
-      </c>
-      <c r="B118" s="21" t="s">
+      <c r="F121" s="21"/>
+      <c r="I121" s="21"/>
+      <c r="L121" s="21"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="B122" s="18" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="21"/>
-      <c r="B119" s="21"/>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F121" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F122" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G122" s="2">
-        <v>0</v>
-      </c>
-    </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F123" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G123" s="2">
-        <v>1</v>
-      </c>
+      <c r="A123" s="18"/>
+      <c r="B123" s="18"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B124" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F124" s="23" t="s">
+      <c r="F125" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F125" s="23" t="s">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F126" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G125" s="2">
+      <c r="G126" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F126" s="23" t="s">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F127" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G126" s="2">
+      <c r="G127" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B127" s="2" t="s">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F127" s="23" t="s">
+      <c r="F128" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F128" s="23" t="s">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F129" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G128" s="2">
+      <c r="G129" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F129" s="23" t="s">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F130" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G129" s="2">
+      <c r="G130" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A130" s="21" t="s">
-        <v>423</v>
-      </c>
-      <c r="B130" s="21" t="s">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F130" s="23" t="s">
+      <c r="F131" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A131" s="21"/>
-      <c r="B131" s="21"/>
-      <c r="F131" s="23" t="s">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F132" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G131" s="2">
+      <c r="G132" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F132" s="23" t="s">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F133" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G132" s="2">
+      <c r="G133" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B134" s="2" t="s">
+      <c r="A134" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="B134" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F134" s="23" t="s">
+      <c r="F134" s="20" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F135" s="23" t="s">
+      <c r="A135" s="18"/>
+      <c r="B135" s="18"/>
+      <c r="F135" s="20" t="s">
         <v>13</v>
       </c>
       <c r="G135" s="2">
@@ -5858,7 +6317,7 @@
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F136" s="23" t="s">
+      <c r="F136" s="20" t="s">
         <v>12</v>
       </c>
       <c r="G136" s="2">
@@ -5867,355 +6326,352 @@
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B137" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F137" s="23" t="s">
+      <c r="F138" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F138" s="23" t="s">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F139" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G138" s="2">
+      <c r="G139" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F139" s="23" t="s">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F140" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G139" s="2">
+      <c r="G140" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A140" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="B140" s="2" t="s">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F140" s="23" t="s">
+      <c r="F141" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="L140" s="28" t="s">
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F142" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G142" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F143" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="M140" s="2">
+      <c r="G143" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F141" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G141" s="2">
-        <v>0</v>
-      </c>
-      <c r="L141" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="M141" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F142" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G142" s="2">
-        <v>1</v>
-      </c>
-      <c r="L142" s="28" t="s">
-        <v>386</v>
-      </c>
-      <c r="M142" s="2">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A143" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A144" s="2" t="s">
-        <v>237</v>
+      <c r="A144" s="18" t="s">
+        <v>232</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F144" s="23" t="s">
+      <c r="F144" s="20" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F145" s="23" t="s">
+      <c r="L144" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="M144" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F145" s="20" t="s">
         <v>13</v>
       </c>
       <c r="G145" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F146" s="23" t="s">
+      <c r="L145" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="M145" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F146" s="20" t="s">
         <v>12</v>
       </c>
       <c r="G146" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L146" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="M146" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F147" s="23" t="s">
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F148" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F148" s="23" t="s">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F149" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G149" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F150" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G150" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F151" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F152" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F153" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="G153" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="G148" s="2" t="s">
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F154" s="20" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F149" s="23" t="s">
+      <c r="G154" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="G149" s="2" t="s">
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F155" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="G155" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F150" s="23" t="s">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="G150" s="2" t="s">
+      <c r="B156" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F151" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="G151" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="B153" s="2" t="s">
+      <c r="B157" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F153" s="23" t="s">
+      <c r="F157" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F154" s="23" t="s">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F158" s="20" t="s">
         <v>13</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F155" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="G155" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F156" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F157" s="23" t="s">
-        <v>243</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F158" s="23" t="s">
-        <v>69</v>
       </c>
       <c r="G158" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="2" t="s">
-        <v>249</v>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F159" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F160" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F161" s="23" t="s">
-        <v>11</v>
+      <c r="F161" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F162" s="23" t="s">
-        <v>251</v>
+      <c r="F162" s="20" t="s">
+        <v>69</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F163" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="G163" s="2" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F164" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="G164" s="2" t="s">
-        <v>256</v>
+      <c r="A164" s="2" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="B165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F165" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F166" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F167" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F168" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F165" s="23" t="s">
+      <c r="F169" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F166" s="23" t="s">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F170" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G166" s="2">
+      <c r="G170" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F167" s="23" t="s">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F171" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G167" s="2">
+      <c r="G171" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B168" s="2" t="s">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B172" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F168" s="23" t="s">
+      <c r="F172" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F169" s="23" t="s">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F173" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G169" s="2">
+      <c r="G173" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F170" s="23" t="s">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F174" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G170" s="2">
+      <c r="G174" s="2">
         <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F171" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F172" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G172" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F173" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G173" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F175" s="23" t="s">
+      <c r="F175" s="20" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F176" s="23" t="s">
+      <c r="F176" s="20" t="s">
         <v>13</v>
       </c>
       <c r="G176" s="2">
@@ -6223,7 +6679,7 @@
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F177" s="23" t="s">
+      <c r="F177" s="20" t="s">
         <v>12</v>
       </c>
       <c r="G177" s="2">
@@ -6231,273 +6687,276 @@
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="2" t="s">
-        <v>262</v>
+      <c r="A178" s="18" t="s">
+        <v>257</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F178" s="23" t="s">
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F179" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F179" s="23" t="s">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F180" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G179" s="2">
+      <c r="G180" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F180" s="23" t="s">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F181" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G180" s="2">
+      <c r="G181" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F182" s="20" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F183" s="23" t="s">
-        <v>11</v>
+      <c r="F183" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G183" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F184" s="23" t="s">
-        <v>13</v>
+      <c r="F184" s="20" t="s">
+        <v>12</v>
       </c>
       <c r="G184" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F185" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G185" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F187" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F188" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G188" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F189" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G189" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F190" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F191" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G191" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F192" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G192" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F193" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F194" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G194" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F195" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G195" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F198" s="21"/>
+      <c r="I198" s="21"/>
+      <c r="L198" s="21"/>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B186" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F186" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F187" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G187" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F188" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G188" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" s="2" t="s">
+      <c r="B199" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B189" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F189" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F190" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G190" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F191" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G191" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="F194" s="24"/>
-      <c r="I194" s="24"/>
-      <c r="L194" s="24"/>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A195" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A196" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A197" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A198" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="200" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="F200" s="24"/>
-      <c r="I200" s="24"/>
-      <c r="L200" s="24"/>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B201" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F204" s="21"/>
+      <c r="I204" s="21"/>
+      <c r="L204" s="21"/>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B205" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F201" s="23" t="s">
+      <c r="F205" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F202" s="23" t="s">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F206" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G202" s="2">
+      <c r="G206" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F203" s="23" t="s">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F207" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G203" s="2">
+      <c r="G207" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A204" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="B204" s="2" t="s">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B208" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F204" s="23" t="s">
+      <c r="F208" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F205" s="23" t="s">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F209" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G205" s="2">
+      <c r="G209" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F206" s="23" t="s">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F210" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G206" s="2">
+      <c r="G210" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A207" s="21" t="s">
-        <v>448</v>
-      </c>
-      <c r="B207" s="21" t="s">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" s="18" t="s">
+        <v>443</v>
+      </c>
+      <c r="B211" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F207" s="23" t="s">
+      <c r="F211" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F208" s="23" t="s">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F212" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G208" s="2">
+      <c r="G212" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F209" s="23" t="s">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F213" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G209" s="2">
+      <c r="G213" s="2">
         <v>1</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B210" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A211" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B211" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B212" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A213" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B213" s="8" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B214" s="8" t="s">
         <v>108</v>
@@ -6505,9 +6964,41 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B215" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B216" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B217" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B218" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B219" s="8" t="s">
         <v>108</v>
       </c>
     </row>
@@ -6522,26 +7013,26 @@
   <dimension ref="A1:M71"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42:G44"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.42578125" style="9" customWidth="1"/>
     <col min="2" max="8" width="25.7109375" style="9" customWidth="1"/>
-    <col min="9" max="9" width="44.140625" style="34" customWidth="1"/>
+    <col min="9" max="9" width="44.140625" style="31" customWidth="1"/>
     <col min="10" max="16384" width="11.42578125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="22" t="s">
-        <v>326</v>
+      <c r="I1" s="19" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6569,7 +7060,7 @@
       <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="19" t="s">
         <v>6</v>
       </c>
       <c r="J2" t="s">
@@ -6581,99 +7072,99 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F5" s="9" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F6" s="9" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F7" s="9" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F8" s="9" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F9" s="9" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F10" s="9" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="I12" s="24"/>
+        <v>295</v>
+      </c>
+      <c r="I12" s="21"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
-        <v>299</v>
+      <c r="A13" s="48" t="s">
+        <v>296</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>10</v>
@@ -6681,62 +7172,62 @@
       <c r="F13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="22" t="s">
+      <c r="I13" s="19" t="s">
         <v>409</v>
       </c>
-      <c r="J13" s="35">
-        <v>0</v>
+      <c r="J13" s="9">
+        <v>3</v>
       </c>
       <c r="M13"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F14" s="9" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G14" s="9">
         <v>0</v>
       </c>
-      <c r="I14" s="22" t="s">
-        <v>410</v>
-      </c>
-      <c r="J14" s="35">
-        <v>1</v>
+      <c r="I14" s="19" t="s">
+        <v>408</v>
+      </c>
+      <c r="J14" s="9">
+        <v>2</v>
       </c>
       <c r="M14"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F15" s="9" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G15" s="9">
         <v>1</v>
       </c>
-      <c r="I15" s="22" t="s">
-        <v>411</v>
-      </c>
-      <c r="J15" s="9">
-        <v>2</v>
+      <c r="I15" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="J15" s="32">
+        <v>1</v>
       </c>
       <c r="M15"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F16" s="9" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G16" s="9">
         <v>2</v>
       </c>
-      <c r="I16" s="22" t="s">
-        <v>412</v>
-      </c>
-      <c r="J16" s="9">
-        <v>3</v>
+      <c r="I16" s="19" t="s">
+        <v>406</v>
+      </c>
+      <c r="J16" s="32">
+        <v>0</v>
       </c>
       <c r="M16"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I17" s="22" t="s">
-        <v>408</v>
+      <c r="I17" s="19" t="s">
+        <v>405</v>
       </c>
       <c r="J17" s="9">
         <v>99</v>
@@ -6745,7 +7236,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>10</v>
@@ -6759,7 +7250,7 @@
       <c r="C21"/>
       <c r="D21" s="1"/>
       <c r="F21" s="9" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G21" s="9">
         <v>0</v>
@@ -6770,7 +7261,7 @@
       <c r="C22"/>
       <c r="D22" s="1"/>
       <c r="F22" s="9" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G22" s="9">
         <v>1</v>
@@ -6781,7 +7272,7 @@
       <c r="C23"/>
       <c r="D23" s="1"/>
       <c r="F23" s="9" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G23" s="9">
         <v>2</v>
@@ -6789,7 +7280,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>10</v>
@@ -6800,7 +7291,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F25" s="9" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G25" s="9">
         <v>0</v>
@@ -6809,7 +7300,7 @@
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B26"/>
       <c r="F26" s="9" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G26" s="9">
         <v>1</v>
@@ -6818,7 +7309,7 @@
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B27"/>
       <c r="F27" s="9" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G27" s="9">
         <v>2</v>
@@ -6826,7 +7317,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>10</v>
@@ -6837,7 +7328,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F29" s="9" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G29" s="9">
         <v>0</v>
@@ -6845,7 +7336,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F30" s="9" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G30" s="9">
         <v>1</v>
@@ -6853,7 +7344,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F31" s="9" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G31" s="9">
         <v>2</v>
@@ -6861,19 +7352,19 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>10</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B33"/>
       <c r="F33" s="9" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G33" s="9">
         <v>0</v>
@@ -6881,7 +7372,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F34" s="9" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G34" s="9">
         <v>1</v>
@@ -6889,7 +7380,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F35" s="9" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G35" s="9">
         <v>2</v>
@@ -6897,7 +7388,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F36" s="9" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G36" s="9">
         <v>3</v>
@@ -6905,7 +7396,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>10</v>
@@ -6916,7 +7407,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F38" s="9" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G38" s="9">
         <v>0</v>
@@ -6925,7 +7416,7 @@
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B39"/>
       <c r="F39" s="9" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G39" s="9">
         <v>1</v>
@@ -6934,7 +7425,7 @@
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B40"/>
       <c r="F40" s="9" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G40" s="9">
         <v>2</v>
@@ -6942,13 +7433,13 @@
     </row>
     <row r="41" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="I41" s="24"/>
+        <v>310</v>
+      </c>
+      <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>10</v>
@@ -6976,7 +7467,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>10</v>
@@ -6995,7 +7486,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F47" s="9" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G47" s="9">
         <v>1</v>
@@ -7011,7 +7502,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>10</v>
@@ -7022,7 +7513,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F50" s="9" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G50" s="9">
         <v>0</v>
@@ -7030,7 +7521,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F51" s="9" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G51" s="9">
         <v>1</v>
@@ -7038,7 +7529,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F52" s="9" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G52" s="9">
         <v>2</v>
@@ -7046,7 +7537,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F53" s="9" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G53" s="9">
         <v>3</v>
@@ -7054,7 +7545,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>10</v>
@@ -7081,7 +7572,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>10</v>
@@ -7108,7 +7599,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>10</v>
@@ -7135,7 +7626,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B63" s="9" t="s">
         <v>10</v>
@@ -7146,62 +7637,66 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F64" s="9" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G64" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F65" s="9" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G65" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F66" s="9" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G66" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="37" t="s">
-        <v>414</v>
-      </c>
-      <c r="B68" s="37" t="s">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="48" t="s">
+        <v>411</v>
+      </c>
+      <c r="B68" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="F68" s="35" t="s">
+      <c r="F68" s="32" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F69" s="37" t="s">
-        <v>415</v>
+      <c r="I68" s="32"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F69" s="34" t="s">
+        <v>412</v>
       </c>
       <c r="G69" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F70" s="37" t="s">
-        <v>416</v>
+      <c r="I69" s="34"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F70" s="34" t="s">
+        <v>413</v>
       </c>
       <c r="G70" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F71" s="37" t="s">
-        <v>386</v>
+      <c r="I70" s="34"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F71" s="34" t="s">
+        <v>383</v>
       </c>
       <c r="G71" s="9">
         <v>99</v>
       </c>
+      <c r="I71" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
